--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO094782.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO094782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -22,304 +22,181 @@
     <x:t>Item</x:t>
   </x:si>
   <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency</x:t>
+  </x:si>
+  <x:si>
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Currency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105088</x:t>
+    <x:t>682244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55067.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189324</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8782.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52693.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>776544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34768.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208612</x:t>
+    <x:t>194618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38923.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>951245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33923.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203543</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>390533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42765.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>911088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262603</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52520.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>463737</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>304038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32664.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>223188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1852.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11113.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>813726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34212.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>626933</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22920</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8955.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53733.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293615</x:t>
+    <x:t>2017-07-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3094.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18566.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44856</x:t>
   </x:si>
   <x:si>
     <x:t>2017-10-17</x:t>
   </x:si>
   <x:si>
-    <x:t>267476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53495.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>496914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289923</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57984.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42622.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>383006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59055.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>354334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55435.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>332611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
+    <x:t>688954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15619.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93716.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-25</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -670,7 +547,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G18"/>
+  <x:dimension ref="A1:G10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -739,33 +616,33 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -773,321 +650,137 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="A11" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="A15" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="A16" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="A17" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7">
-      <x:c r="A18" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
